--- a/static/Library/Library.xlsx
+++ b/static/Library/Library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMR\Desktop\NLP_Resume\static\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B40A494-71D5-486B-B2E1-7F7612B6E9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE93514-551D-477F-BABA-9E198DD53B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1272" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5004" yWindow="1212" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="126">
   <si>
     <t>python</t>
   </si>
@@ -781,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1366,41 +1366,36 @@
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1519,16 +1514,15 @@
     <hyperlink ref="B89" r:id="rId111" tooltip="Qooxdoo" display="https://en.wikipedia.org/wiki/Qooxdoo" xr:uid="{0B7BA067-EF06-436E-BCF4-05CF898AA348}"/>
     <hyperlink ref="B90" r:id="rId112" tooltip="React.js" display="https://en.wikipedia.org/wiki/React.js" xr:uid="{D811B78F-2F53-4BFD-9E20-854B32910D00}"/>
     <hyperlink ref="B91" r:id="rId113" tooltip="SproutCore" display="https://en.wikipedia.org/wiki/SproutCore" xr:uid="{1C9DDBF0-55A0-4D1C-872B-D3BB67F26EC9}"/>
-    <hyperlink ref="B92" r:id="rId114" tooltip="Vue.js" display="https://en.wikipedia.org/wiki/Vue.js" xr:uid="{BBE8EE38-1236-4215-A918-D7EA47342730}"/>
-    <hyperlink ref="B93" r:id="rId115" tooltip="Wakanda (software)" display="https://en.wikipedia.org/wiki/Wakanda_(software)" xr:uid="{39321128-575B-4B8D-8D7A-7753CA8F5E1F}"/>
-    <hyperlink ref="B94" r:id="rId116" tooltip="Blockly" display="https://en.wikipedia.org/wiki/Blockly" xr:uid="{F5FDAD3F-3A49-4B19-8F4F-3B735E2839C4}"/>
-    <hyperlink ref="B95" r:id="rId117" tooltip="Cannon.js" display="https://en.wikipedia.org/wiki/Cannon.js" xr:uid="{C7E6FA8A-77AA-4BF3-9D0A-B8F9A64A5731}"/>
-    <hyperlink ref="B96" r:id="rId118" tooltip="MathJax" display="https://en.wikipedia.org/wiki/MathJax" xr:uid="{0AF3475D-7729-4A0A-80B2-BC293714C459}"/>
-    <hyperlink ref="B97" r:id="rId119" tooltip="Modernizr" display="https://en.wikipedia.org/wiki/Modernizr" xr:uid="{F2A70BA6-3C3F-44C8-B293-A66C1130F2B4}"/>
-    <hyperlink ref="B98" r:id="rId120" tooltip="TensorFlow" display="https://en.wikipedia.org/wiki/TensorFlow" xr:uid="{752B1C31-5A7B-4030-A70C-CDEEB0484938}"/>
-    <hyperlink ref="B99" r:id="rId121" tooltip="Brain.js" display="https://en.wikipedia.org/wiki/Brain.js" xr:uid="{BD2FC3E6-D5A2-46EF-AE1F-C8643592E37A}"/>
+    <hyperlink ref="B92" r:id="rId114" tooltip="Wakanda (software)" display="https://en.wikipedia.org/wiki/Wakanda_(software)" xr:uid="{39321128-575B-4B8D-8D7A-7753CA8F5E1F}"/>
+    <hyperlink ref="B93" r:id="rId115" tooltip="Blockly" display="https://en.wikipedia.org/wiki/Blockly" xr:uid="{F5FDAD3F-3A49-4B19-8F4F-3B735E2839C4}"/>
+    <hyperlink ref="B94" r:id="rId116" tooltip="Cannon.js" display="https://en.wikipedia.org/wiki/Cannon.js" xr:uid="{C7E6FA8A-77AA-4BF3-9D0A-B8F9A64A5731}"/>
+    <hyperlink ref="B95" r:id="rId117" tooltip="MathJax" display="https://en.wikipedia.org/wiki/MathJax" xr:uid="{0AF3475D-7729-4A0A-80B2-BC293714C459}"/>
+    <hyperlink ref="B96" r:id="rId118" tooltip="Modernizr" display="https://en.wikipedia.org/wiki/Modernizr" xr:uid="{F2A70BA6-3C3F-44C8-B293-A66C1130F2B4}"/>
+    <hyperlink ref="B97" r:id="rId119" tooltip="TensorFlow" display="https://en.wikipedia.org/wiki/TensorFlow" xr:uid="{752B1C31-5A7B-4030-A70C-CDEEB0484938}"/>
+    <hyperlink ref="B98" r:id="rId120" tooltip="Brain.js" display="https://en.wikipedia.org/wiki/Brain.js" xr:uid="{BD2FC3E6-D5A2-46EF-AE1F-C8643592E37A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId122"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId121"/>
 </worksheet>
 </file>